--- a/Team-Data/2013-14/12-30-2013-14.xlsx
+++ b/Team-Data/2013-14/12-30-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -774,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
@@ -783,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -804,19 +871,19 @@
         <v>10</v>
       </c>
       <c r="AX2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA2" t="n">
         <v>23</v>
       </c>
-      <c r="AY2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>24</v>
-      </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF3" t="n">
         <v>18</v>
       </c>
-      <c r="AF3" t="n">
-        <v>17</v>
-      </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -959,10 +1026,10 @@
         <v>15</v>
       </c>
       <c r="AO3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP3" t="n">
         <v>28</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -971,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>24</v>
@@ -986,7 +1053,7 @@
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1138,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1147,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
@@ -1171,7 +1238,7 @@
         <v>27</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.438</v>
+        <v>0.452</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.325</v>
+        <v>0.32</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="Q5" t="n">
         <v>0.719</v>
@@ -1260,43 +1327,43 @@
         <v>33</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="V5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W5" t="n">
         <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1305,25 +1372,25 @@
         <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>7</v>
@@ -1335,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="AS5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT5" t="n">
         <v>12</v>
@@ -1350,19 +1417,19 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.414</v>
+        <v>0.393</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="P6" t="n">
-        <v>23.5</v>
+        <v>22.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>44.6</v>
+        <v>44.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V6" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W6" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y6" t="n">
         <v>6.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
@@ -1502,22 +1569,22 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1532,16 +1599,16 @@
         <v>28</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1693,7 +1760,7 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>10</v>
@@ -1714,10 +1781,10 @@
         <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.581</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1785,37 +1852,37 @@
         <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.383</v>
       </c>
       <c r="O8" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
         <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>4.7</v>
@@ -1827,16 +1894,16 @@
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC8" t="n">
         <v>1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1860,19 +1927,19 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,13 +1948,13 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>9</v>
@@ -1896,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -1908,7 +1975,7 @@
         <v>28</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.467</v>
+        <v>0.483</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1958,10 +2025,10 @@
         <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L9" t="n">
         <v>7.3</v>
@@ -1970,64 +2037,64 @@
         <v>21</v>
       </c>
       <c r="N9" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.728</v>
+        <v>0.725</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V9" t="n">
         <v>15.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
         <v>21.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AC9" t="n">
         <v>-1</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -2036,7 +2103,7 @@
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -2048,22 +2115,22 @@
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2081,16 +2148,16 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>22</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>0.424</v>
+        <v>0.438</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.45</v>
@@ -2155,25 +2222,25 @@
         <v>0.321</v>
       </c>
       <c r="O10" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.665</v>
+        <v>0.668</v>
       </c>
       <c r="R10" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
         <v>44.3</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V10" t="n">
         <v>15.5</v>
@@ -2182,37 +2249,37 @@
         <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AB10" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
@@ -2221,19 +2288,19 @@
         <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2251,28 +2318,28 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,16 +2461,16 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>4</v>
@@ -2421,10 +2488,10 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG12" t="n">
         <v>7</v>
       </c>
-      <c r="AG12" t="n">
-        <v>6</v>
-      </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2597,7 +2664,7 @@
         <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2621,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2630,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2779,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -2850,97 +2917,97 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
         <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.656</v>
       </c>
       <c r="H14" t="n">
         <v>48.5</v>
       </c>
       <c r="I14" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
         <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q14" t="n">
         <v>0.72</v>
       </c>
       <c r="R14" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
         <v>32.8</v>
       </c>
       <c r="T14" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X14" t="n">
         <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
         <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.5</v>
+        <v>105</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2970,25 +3037,25 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW14" t="n">
         <v>8</v>
       </c>
-      <c r="AV14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>11</v>
-      </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
@@ -3137,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN15" t="n">
         <v>11</v>
@@ -3146,13 +3213,13 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
@@ -3176,13 +3243,13 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.433</v>
+        <v>0.448</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J16" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.449</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
         <v>0.756</v>
@@ -3259,43 +3326,43 @@
         <v>12</v>
       </c>
       <c r="S16" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
         <v>21.4</v>
       </c>
       <c r="V16" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA16" t="n">
         <v>19.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
         <v>17</v>
@@ -3307,40 +3374,40 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP16" t="n">
         <v>25</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS16" t="n">
         <v>24</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>25</v>
-      </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3349,22 +3416,22 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX16" t="n">
         <v>28</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB16" t="n">
         <v>25</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -3396,55 +3463,55 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.774</v>
+        <v>0.767</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J17" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.511</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M17" t="n">
         <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.384</v>
+        <v>0.381</v>
       </c>
       <c r="O17" t="n">
         <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.753</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="S17" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="U17" t="n">
         <v>24.1</v>
@@ -3453,43 +3520,43 @@
         <v>15.3</v>
       </c>
       <c r="W17" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>4.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="AA17" t="n">
         <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,16 +3571,16 @@
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3534,16 +3601,16 @@
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
         <v>19</v>
@@ -3692,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
@@ -3704,7 +3771,7 @@
         <v>26</v>
       </c>
       <c r="AT18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>18</v>
@@ -3716,7 +3783,7 @@
         <v>24</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>18</v>
@@ -3728,11 +3795,11 @@
         <v>16</v>
       </c>
       <c r="BB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="BC18" t="n">
         <v>28</v>
       </c>
-      <c r="BC18" t="n">
-        <v>29</v>
-      </c>
       <c r="BD18" t="n">
         <v>10</v>
       </c>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J19" t="n">
-        <v>89.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.429</v>
@@ -3790,22 +3857,22 @@
         <v>23.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O19" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.796</v>
+        <v>0.794</v>
       </c>
       <c r="R19" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="S19" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T19" t="n">
         <v>46.2</v>
@@ -3814,10 +3881,10 @@
         <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>2.9</v>
@@ -3829,28 +3896,28 @@
         <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.2</v>
+        <v>106.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>11</v>
@@ -3871,7 +3938,7 @@
         <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3886,13 +3953,13 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -3942,106 +4009,106 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.483</v>
+        <v>0.464</v>
       </c>
       <c r="H20" t="n">
         <v>48.7</v>
       </c>
       <c r="I20" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="J20" t="n">
         <v>87.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.449</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.386</v>
+        <v>0.391</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>44</v>
+      </c>
+      <c r="U20" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="V20" t="n">
         <v>13.4</v>
       </c>
-      <c r="S20" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="T20" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>23</v>
-      </c>
-      <c r="V20" t="n">
-        <v>13.2</v>
-      </c>
       <c r="W20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="AC20" t="n">
         <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -4056,7 +4123,7 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ20" t="n">
         <v>10</v>
@@ -4065,13 +4132,13 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4080,16 +4147,16 @@
         <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
         <v>27</v>
@@ -4259,13 +4326,13 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
@@ -4274,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4420,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4444,7 +4511,7 @@
         <v>13</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4581,13 +4648,13 @@
         <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
@@ -4602,10 +4669,10 @@
         <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4629,13 +4696,13 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
@@ -4763,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="AI24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ24" t="n">
         <v>2</v>
@@ -4778,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
         <v>20</v>
@@ -4799,7 +4866,7 @@
         <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>19</v>
       </c>
       <c r="BA24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="n">
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>0.633</v>
+        <v>0.621</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J25" t="n">
         <v>83</v>
@@ -4876,64 +4943,64 @@
         <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M25" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="N25" t="n">
         <v>0.373</v>
       </c>
       <c r="O25" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P25" t="n">
         <v>23.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.743</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
         <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T25" t="n">
         <v>43.3</v>
       </c>
       <c r="U25" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="V25" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>6</v>
@@ -4942,7 +5009,7 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>12</v>
@@ -4951,7 +5018,7 @@
         <v>18</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4960,19 +5027,19 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ25" t="n">
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4981,16 +5048,16 @@
         <v>14</v>
       </c>
       <c r="AU25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV25" t="n">
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
@@ -4999,10 +5066,10 @@
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -5034,22 +5101,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.774</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J26" t="n">
         <v>87.40000000000001</v>
@@ -5061,46 +5128,46 @@
         <v>10.3</v>
       </c>
       <c r="M26" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.403</v>
+        <v>0.404</v>
       </c>
       <c r="O26" t="n">
         <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.819</v>
+        <v>0.821</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="U26" t="n">
         <v>24</v>
       </c>
       <c r="V26" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W26" t="n">
         <v>5.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="AA26" t="n">
         <v>20.5</v>
@@ -5109,10 +5176,10 @@
         <v>108.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5124,13 +5191,13 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
         <v>11</v>
@@ -5139,16 +5206,16 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5160,22 +5227,22 @@
         <v>8</v>
       </c>
       <c r="AT26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>4</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
@@ -5342,7 +5409,7 @@
         <v>20</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
         <v>20</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -5476,16 +5543,16 @@
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>27</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5536,7 +5603,7 @@
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>0.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
@@ -5694,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
@@ -5709,7 +5776,7 @@
         <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.294</v>
+        <v>0.273</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
@@ -5786,64 +5853,64 @@
         <v>0.431</v>
       </c>
       <c r="L30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M30" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="P30" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
         <v>15.5</v>
       </c>
       <c r="W30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>92.7</v>
+        <v>93</v>
       </c>
       <c r="AC30" t="n">
-        <v>-8.1</v>
+        <v>-8.5</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
         <v>29</v>
@@ -5864,19 +5931,19 @@
         <v>24</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ30" t="n">
         <v>14</v>
@@ -5888,13 +5955,13 @@
         <v>29</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>22</v>
@@ -5909,13 +5976,13 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
         <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.481</v>
       </c>
       <c r="H31" t="n">
         <v>49.1</v>
       </c>
       <c r="I31" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J31" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>8.5</v>
       </c>
       <c r="M31" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.394</v>
+        <v>0.395</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S31" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T31" t="n">
         <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V31" t="n">
         <v>15.6</v>
@@ -6004,34 +6071,34 @@
         <v>8.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6043,10 +6110,10 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM31" t="n">
         <v>14</v>
@@ -6055,46 +6122,46 @@
         <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>22</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA31" t="n">
         <v>24</v>
       </c>
-      <c r="AY31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>23</v>
-      </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-30-2013-14</t>
+          <t>2013-12-30</t>
         </is>
       </c>
     </row>
